--- a/Borderlands 2/Borderlands2_data.xlsx
+++ b/Borderlands 2/Borderlands2_data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\games\Borderlands 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422580DD-508F-4FFC-B32B-C430C7D674AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D46F7-DBB3-46F7-AD91-7F237FAE1335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeviathanFarmingData" sheetId="1" r:id="rId1"/>
     <sheet name="SurveyRelicOption" sheetId="2" r:id="rId2"/>
+    <sheet name="쿼스트 보상" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="198">
   <si>
     <t>RoomNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,18 +392,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Psyco</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>classLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Snifer Rifle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +454,372 @@
   <si>
     <t>We don't need no fire…</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feral Veruc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want that rifle, Daddy!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAHL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuting Slagga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blagaga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANDIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legendary Siren Class Mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"(giggles) I'm really good at this!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social Bitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yup. Back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baynaeted Gub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abt natural.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shotgun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Deliverance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiki got a shotgun!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flush Hammer Buster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gar! Gorarr! My dad's a scientist! GWARRRR!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAKOBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wyld Asss Madhous!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pertinent Pyrophobia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's actually a fairly rational fear in this case.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubberized Pandemic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spread the sickness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bearer of Bad News</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanctuary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mordecai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breach Scorpio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Say not in grief: "He is no more." but live in thankfulness that he was.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assaassinate the Assassins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energizing Commerce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a Soldier, a Siren, two Scooters and a Claptrap.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am free now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fine Judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thre Dog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because one barrel ain't enough, and two is too few.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonus critical hit damage (+30% additive critical hit damage and +25% multiplicative critical hit damage). Increased projectile velocity.</t>
+  </si>
+  <si>
+    <t>Increased damage, fire rate and magazine size.</t>
+  </si>
+  <si>
+    <r>
+      <t>Always </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shock. When moving, a flashing animated effect covers the entire weapon surface.</t>
+    </r>
+  </si>
+  <si>
+    <t>Variable burst-fire count when zoomed in. Variable hip-fire firing rate. Increased damage, fire rate, and magazine size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Chosen One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slippery Evil Smasher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Evil will be SMASHED!!! WITH SMASHING!!! EVIL!!! SMASH!!! ER!!!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extremely poor overall weapon stats. Reloading has a small chance to massively enhance the power of the weapon and will last until the next reload.</t>
+  </si>
+  <si>
+    <t>The Bane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Bane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in Spain, stays mainly on the plain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greatly increased damage, increased magazine size, greatly decreased initial accuracy and reduced final accuracy. Unique voice module. When equipped, movement speed is greatly reduced.</t>
+  </si>
+  <si>
+    <t>Showdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deputy's Badge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who the hell shot me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increased shotgun damage and reload speed. +10% more time in Fight for Your Life for every equipped Deputy's Badge in the party.</t>
+  </si>
+  <si>
+    <t>BFFs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lynchwood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanctuary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chung-gunk!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the Law revolver is equipped, 25% of damage done with melee attacks is converted to health.</t>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moxxi Bar 앞 시체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coopus 정비소 앞 총 겨누는 4명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper Rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chikamin Buffalo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bison Bison had had had had had Bison Bison Bison Shi Shi Shi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increased damage and slightly reduced accuracy. Cannot spawn with a scope.</t>
+  </si>
+  <si>
+    <t>Demon Hunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slap-Happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammerlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Octa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Octo means 9.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fires 10 pellets in a 3x3 grid pattern with the centre left point missing, and with 2 of the points in the pattern receiving 2 pellets each. Pellets are slow moving and fly in a sine-wave pattern while leaving yellow orange trails.</t>
+  </si>
+  <si>
+    <t>Hell Hath No Fury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moxxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greneid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shock Kiss of Death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It takes two to get one in trouble.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenade homes in and sticks to the target. After sticking to an enemy, it deals damage over time until the target dies or the grenade detonates. Upon exploding, it sends out life orbs that heal allies. Fixed fuse time of 3 seconds.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\+0.0%;\-0.0%;0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +839,37 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -503,16 +893,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,13 +1186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
@@ -808,15 +1204,15 @@
     <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -840,12 +1236,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>200518</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1">
         <v>36</v>
@@ -872,944 +1268,3164 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:10" s="1" customFormat="1">
+      <c r="A3" s="1">
         <v>200518</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1">
+      <c r="A5" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1">
+      <c r="A7" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1">
+      <c r="A8" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1">
+      <c r="A9" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1">
+      <c r="A10" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1">
+      <c r="A11" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1">
+      <c r="A12" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1">
+      <c r="A13" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1">
+      <c r="A14" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1">
+      <c r="A15" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1">
+      <c r="A16" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1">
+      <c r="A17" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1">
+      <c r="A18" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1">
+      <c r="A19" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>200518</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1">
+      <c r="A21" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>200518</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1">
+      <c r="A23" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>200518</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>200518</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="1">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1">
+      <c r="A26" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1">
+      <c r="A27" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1">
+      <c r="A28" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1">
+      <c r="A29" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1">
+      <c r="A30" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1">
+      <c r="A31" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1">
+      <c r="A32" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>200518</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1">
+      <c r="A34" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1">
+        <v>36</v>
+      </c>
+      <c r="D34" s="1">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1">
+      <c r="A35" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1">
+      <c r="A36" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1">
+      <c r="A37" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1">
+      <c r="A38" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="1">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1">
+      <c r="A39" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1">
+      <c r="A40" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1">
+        <v>36</v>
+      </c>
+      <c r="D40" s="1">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1">
+      <c r="A41" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>200518</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1">
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1">
+      <c r="A43" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1">
+      <c r="A44" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>200518</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="1">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>200518</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1">
+        <v>36</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1">
+      <c r="A47" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1">
+        <v>36</v>
+      </c>
+      <c r="D47" s="1">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1">
+      <c r="A48" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="1">
+        <v>36</v>
+      </c>
+      <c r="D48" s="1">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1">
+      <c r="A49" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="1">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1">
+      <c r="A50" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1">
+        <v>49</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1">
+      <c r="A51" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="1">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1">
+      <c r="A52" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="1">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1">
+      <c r="A53" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="1">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1">
+      <c r="A54" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="1">
+        <v>36</v>
+      </c>
+      <c r="D54" s="1">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1">
+      <c r="A55" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="1">
+        <v>36</v>
+      </c>
+      <c r="D55" s="1">
+        <v>54</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="1">
+        <v>36</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="1">
+        <v>36</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1">
+      <c r="A58" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="1">
+        <v>36</v>
+      </c>
+      <c r="D58" s="1">
+        <v>56</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1">
+      <c r="A59" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1">
+        <v>36</v>
+      </c>
+      <c r="D59" s="1">
+        <v>57</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1">
+      <c r="A60" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1">
+        <v>36</v>
+      </c>
+      <c r="D60" s="1">
+        <v>58</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="1">
+        <v>36</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="1">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="1">
+        <v>42</v>
+      </c>
+      <c r="D63" s="1">
+        <v>61</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="1">
+        <v>42</v>
+      </c>
+      <c r="D64" s="1">
+        <v>62</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42</v>
+      </c>
+      <c r="D65" s="1">
+        <v>63</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="1">
+        <v>42</v>
+      </c>
+      <c r="D66" s="1">
+        <v>64</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="1">
+        <v>42</v>
+      </c>
+      <c r="D67" s="1">
+        <v>65</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="1">
+        <v>42</v>
+      </c>
+      <c r="D68" s="1">
+        <v>66</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="1">
+        <v>42</v>
+      </c>
+      <c r="D69" s="1">
+        <v>67</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="1">
+        <v>42</v>
+      </c>
+      <c r="D70" s="1">
+        <v>68</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="1">
+        <v>42</v>
+      </c>
+      <c r="D71" s="1">
+        <v>69</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="1">
+        <v>42</v>
+      </c>
+      <c r="D72" s="1">
+        <v>70</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="1">
-        <v>36</v>
-      </c>
-      <c r="D3">
+      <c r="F72" s="1">
+        <v>41</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="1">
+        <v>42</v>
+      </c>
+      <c r="D73" s="1">
+        <v>71</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="1">
+        <v>42</v>
+      </c>
+      <c r="D74" s="1">
+        <v>72</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="1">
+        <v>42</v>
+      </c>
+      <c r="D75" s="1">
+        <v>73</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="1">
+        <v>42</v>
+      </c>
+      <c r="D76" s="1">
+        <v>74</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="1">
+        <v>41</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="1">
+        <v>42</v>
+      </c>
+      <c r="D77" s="1">
+        <v>75</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="1">
+        <v>42</v>
+      </c>
+      <c r="D78" s="1">
+        <v>76</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="1">
+        <v>42</v>
+      </c>
+      <c r="D79" s="1">
+        <v>77</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="1">
+        <v>42</v>
+      </c>
+      <c r="D80" s="1">
+        <v>78</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42</v>
+      </c>
+      <c r="D81" s="1">
+        <v>79</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="1">
+        <v>42</v>
+      </c>
+      <c r="D82" s="1">
+        <v>80</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="1">
+        <v>42</v>
+      </c>
+      <c r="D83" s="1">
+        <v>81</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="1">
+        <v>42</v>
+      </c>
+      <c r="D84" s="1">
+        <v>82</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="1">
+        <v>42</v>
+      </c>
+      <c r="D85" s="1">
+        <v>83</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="1">
+        <v>42</v>
+      </c>
+      <c r="D86" s="1">
+        <v>84</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="1">
+        <v>42</v>
+      </c>
+      <c r="D87" s="1">
+        <v>85</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="1">
+        <v>42</v>
+      </c>
+      <c r="D88" s="1">
+        <v>86</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="1">
+        <v>41</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="1">
+        <v>42</v>
+      </c>
+      <c r="D89" s="1">
+        <v>87</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="1">
+        <v>42</v>
+      </c>
+      <c r="D90" s="1">
+        <v>88</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="1">
+        <v>41</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1">
+        <v>42</v>
+      </c>
+      <c r="D91" s="1">
+        <v>89</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>200518</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1">
+        <v>42</v>
+      </c>
+      <c r="D92" s="1">
+        <v>90</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>200524</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="1">
+        <v>50</v>
+      </c>
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>107</v>
+      </c>
+      <c r="H93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="1">
+        <v>50</v>
+      </c>
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="1">
+        <v>50</v>
+      </c>
+      <c r="D95" s="1">
+        <v>93</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="1">
+        <v>50</v>
+      </c>
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96">
+        <v>50</v>
+      </c>
+      <c r="G96" t="s">
+        <v>112</v>
+      </c>
+      <c r="H96" t="s">
+        <v>113</v>
+      </c>
+      <c r="I96" t="s">
+        <v>114</v>
+      </c>
+      <c r="J96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="1">
+        <v>50</v>
+      </c>
+      <c r="D97" s="1">
+        <v>95</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="1">
+        <v>50</v>
+      </c>
+      <c r="D98" s="1">
+        <v>96</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="1">
+        <v>50</v>
+      </c>
+      <c r="D99" s="1">
+        <v>97</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="1">
+        <v>50</v>
+      </c>
+      <c r="D100" s="1">
+        <v>98</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" s="1">
+        <v>50</v>
+      </c>
+      <c r="D101" s="1">
+        <v>99</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="1">
+        <v>50</v>
+      </c>
+      <c r="D102" s="1">
+        <v>100</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="1">
+        <v>50</v>
+      </c>
+      <c r="D103" s="1">
+        <v>101</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" s="1">
+        <v>50</v>
+      </c>
+      <c r="D104" s="1">
+        <v>102</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="1">
+        <v>50</v>
+      </c>
+      <c r="D105" s="1">
+        <v>103</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="1">
+        <v>50</v>
+      </c>
+      <c r="D106" s="1">
+        <v>104</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>50</v>
+      </c>
+      <c r="D107" s="1">
+        <v>105</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="1">
+        <v>50</v>
+      </c>
+      <c r="D108" s="1">
+        <v>106</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="1">
+        <v>50</v>
+      </c>
+      <c r="D109" s="1">
+        <v>107</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="1">
+        <v>50</v>
+      </c>
+      <c r="D110" s="1">
+        <v>108</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="1">
+        <v>50</v>
+      </c>
+      <c r="D111" s="1">
+        <v>109</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="1">
+        <v>50</v>
+      </c>
+      <c r="D112" s="1">
+        <v>110</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" s="1">
+        <v>50</v>
+      </c>
+      <c r="D113" s="1">
+        <v>111</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>50</v>
+      </c>
+      <c r="G113" t="s">
+        <v>116</v>
+      </c>
+      <c r="H113" t="s">
+        <v>117</v>
+      </c>
+      <c r="I113" t="s">
+        <v>118</v>
+      </c>
+      <c r="J113" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="1">
+        <v>50</v>
+      </c>
+      <c r="D114" s="1">
+        <v>112</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C115" s="1">
+        <v>50</v>
+      </c>
+      <c r="D115" s="1">
+        <v>113</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" s="1">
+        <v>50</v>
+      </c>
+      <c r="D116" s="1">
+        <v>114</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C117" s="1">
+        <v>50</v>
+      </c>
+      <c r="D117" s="1">
+        <v>115</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" s="1">
+        <v>50</v>
+      </c>
+      <c r="D118" s="1">
+        <v>116</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="1">
+        <v>50</v>
+      </c>
+      <c r="D119" s="1">
+        <v>117</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" s="1">
+        <v>50</v>
+      </c>
+      <c r="D120" s="1">
+        <v>118</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" s="1">
+        <v>50</v>
+      </c>
+      <c r="D121" s="1">
+        <v>119</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="1">
+        <v>50</v>
+      </c>
+      <c r="D122" s="1">
+        <v>120</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" s="1">
+        <v>50</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123" s="1">
+        <v>50</v>
+      </c>
+      <c r="D123" s="1">
+        <v>121</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C124" s="1">
+        <v>50</v>
+      </c>
+      <c r="D124" s="1">
+        <v>122</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="1">
+        <v>50</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="1">
+        <v>50</v>
+      </c>
+      <c r="D125" s="1">
+        <v>123</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" s="1">
+        <v>50</v>
+      </c>
+      <c r="D126" s="1">
+        <v>124</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F126" s="1">
+        <v>50</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" s="1">
+        <v>50</v>
+      </c>
+      <c r="D127" s="1">
+        <v>125</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C128" s="1">
+        <v>50</v>
+      </c>
+      <c r="D128" s="1">
+        <v>126</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C129" s="1">
+        <v>50</v>
+      </c>
+      <c r="D129" s="1">
+        <v>127</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" s="1">
+        <v>50</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" s="1">
+        <v>50</v>
+      </c>
+      <c r="D130" s="1">
+        <v>128</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" s="1">
+        <v>50</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C131" s="1">
+        <v>50</v>
+      </c>
+      <c r="D131" s="1">
+        <v>128</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="1">
+        <v>50</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" s="1">
+        <v>50</v>
+      </c>
+      <c r="D132" s="1">
+        <v>129</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1">
+        <v>200524</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" s="1">
+        <v>50</v>
+      </c>
+      <c r="D133" s="1">
+        <v>130</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134" s="1">
+        <v>50</v>
+      </c>
+      <c r="D134" s="1">
+        <v>131</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135" s="1">
+        <v>50</v>
+      </c>
+      <c r="D135" s="1">
+        <v>132</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136" s="1">
+        <v>50</v>
+      </c>
+      <c r="D136" s="1">
+        <v>133</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C137" s="1">
+        <v>50</v>
+      </c>
+      <c r="D137" s="1">
+        <v>134</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="1">
+        <v>50</v>
+      </c>
+      <c r="D138" s="1">
+        <v>135</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F138" s="1">
+        <v>50</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C139" s="1">
+        <v>50</v>
+      </c>
+      <c r="D139" s="1">
+        <v>136</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C140" s="1">
+        <v>50</v>
+      </c>
+      <c r="D140" s="1">
+        <v>137</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="1">
+        <v>50</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C141" s="1">
+        <v>50</v>
+      </c>
+      <c r="D141" s="1">
+        <v>138</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C142" s="1">
+        <v>50</v>
+      </c>
+      <c r="D142" s="1">
+        <v>139</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" s="1">
+        <v>50</v>
+      </c>
+      <c r="D143" s="1">
+        <v>140</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F143" s="1">
+        <v>50</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>200518</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="1">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>200518</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="1">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>200518</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="1">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>200518</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="1">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>200518</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="1">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>200518</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="1">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>200518</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="1">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="1">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="1">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="1">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="1">
-        <v>36</v>
-      </c>
-      <c r="D14">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="1">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1">
-        <v>61</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="1">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="1">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1">
-        <v>63</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="1">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="1">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="1">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1">
-        <v>67</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="1">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1">
-        <v>68</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="1">
-        <v>42</v>
-      </c>
-      <c r="D23" s="1">
-        <v>69</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="1">
-        <v>42</v>
-      </c>
-      <c r="D24" s="1">
-        <v>70</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="1">
-        <v>41</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="1">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1">
-        <v>71</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="1">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1">
-        <v>72</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="1">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1">
-        <v>73</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="1">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1">
-        <v>74</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="1">
-        <v>41</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="1">
-        <v>42</v>
-      </c>
-      <c r="D29" s="1">
-        <v>75</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="1">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1">
-        <v>76</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="1">
-        <v>42</v>
-      </c>
-      <c r="D31" s="1">
-        <v>77</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="1">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1">
-        <v>78</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="1">
-        <v>42</v>
-      </c>
-      <c r="D33" s="1">
-        <v>79</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="1">
-        <v>42</v>
-      </c>
-      <c r="D34" s="1">
-        <v>80</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="1">
-        <v>42</v>
-      </c>
-      <c r="D35" s="1">
-        <v>81</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="1">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1">
-        <v>82</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="1">
-        <v>42</v>
-      </c>
-      <c r="D37" s="1">
-        <v>83</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="1">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1">
-        <v>84</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="1">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1">
-        <v>85</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="1">
-        <v>42</v>
-      </c>
-      <c r="D40" s="1">
-        <v>86</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1">
-        <v>41</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="1">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1">
-        <v>87</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="1">
-        <v>42</v>
-      </c>
-      <c r="D42" s="1">
-        <v>88</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="1">
-        <v>41</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="1">
-        <v>42</v>
-      </c>
-      <c r="D43" s="1">
-        <v>89</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>200518</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="1">
-        <v>42</v>
-      </c>
-      <c r="D44" s="1">
-        <v>90</v>
-      </c>
-      <c r="E44" s="1" t="s">
+    <row r="144" spans="1:10">
+      <c r="A144" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C144" s="1">
+        <v>50</v>
+      </c>
+      <c r="D144" s="1">
+        <v>141</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C145" s="1">
+        <v>50</v>
+      </c>
+      <c r="D145" s="1">
+        <v>142</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="1">
+        <v>50</v>
+      </c>
+      <c r="D146" s="1">
+        <v>143</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="1">
+        <v>50</v>
+      </c>
+      <c r="D147" s="1">
+        <v>144</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" s="1">
+        <v>50</v>
+      </c>
+      <c r="D148" s="1">
+        <v>145</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" s="1">
+        <v>50</v>
+      </c>
+      <c r="D149" s="1">
+        <v>146</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" s="1">
+        <v>50</v>
+      </c>
+      <c r="D150" s="1">
+        <v>147</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="1">
+        <v>50</v>
+      </c>
+      <c r="D151" s="1">
+        <v>148</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C152" s="1">
+        <v>50</v>
+      </c>
+      <c r="D152" s="1">
+        <v>149</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C153" s="1">
+        <v>50</v>
+      </c>
+      <c r="D153" s="1">
+        <v>150</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" s="1">
+        <v>50</v>
+      </c>
+      <c r="D154" s="1">
+        <v>151</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C155" s="1">
+        <v>50</v>
+      </c>
+      <c r="D155" s="1">
+        <v>152</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C156" s="1">
+        <v>50</v>
+      </c>
+      <c r="D156" s="1">
+        <v>153</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C157" s="1">
+        <v>50</v>
+      </c>
+      <c r="D157" s="1">
+        <v>154</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C158" s="1">
+        <v>50</v>
+      </c>
+      <c r="D158" s="1">
+        <v>155</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C159" s="1">
+        <v>50</v>
+      </c>
+      <c r="D159" s="1">
+        <v>156</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C160" s="1">
+        <v>50</v>
+      </c>
+      <c r="D160" s="1">
+        <v>157</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C161" s="1">
+        <v>50</v>
+      </c>
+      <c r="D161" s="1">
+        <v>158</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="1">
+        <v>50</v>
+      </c>
+      <c r="D162" s="1">
+        <v>159</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="1">
+        <v>50</v>
+      </c>
+      <c r="D163" s="1">
+        <v>160</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>200525</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" s="1">
+        <v>50</v>
+      </c>
+      <c r="D164" s="1">
+        <v>161</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1825,10 +4441,10 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
@@ -1838,7 +4454,7 @@
     <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -1864,7 +4480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1890,7 +4506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1916,7 +4532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1942,7 +4558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1968,7 +4584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1994,7 +4610,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2020,7 +4636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2046,7 +4662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2072,7 +4688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2098,7 +4714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2124,7 +4740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2150,7 +4766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2176,7 +4792,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2202,7 +4818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2228,7 +4844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2254,7 +4870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2280,7 +4896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2306,7 +4922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2332,7 +4948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2358,7 +4974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2384,7 +5000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2410,7 +5026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2436,7 +5052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2462,7 +5078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2488,7 +5104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2514,7 +5130,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
       <c r="B27" s="1">
         <v>19</v>
       </c>
@@ -2537,7 +5156,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="B28" s="1">
         <v>20</v>
       </c>
@@ -2551,7 +5173,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G28" s="2">
         <v>0.27</v>
@@ -2560,7 +5182,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="1">
         <v>21</v>
       </c>
@@ -2574,7 +5199,7 @@
         <v>84</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G29" s="2">
         <v>0.625</v>
@@ -2583,7 +5208,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="1">
         <v>21</v>
       </c>
@@ -2597,7 +5225,7 @@
         <v>84</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G30" s="2">
         <v>0.625</v>
@@ -2611,4 +5239,310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB539F1-F518-4B7F-A256-90DFCEA96520}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="133.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" tooltip="Shock" display="https://borderlands.fandom.com/wiki/Shock" xr:uid="{68D4A486-32C8-412C-A030-B0545CF1CF32}"/>
+    <hyperlink ref="G9" r:id="rId2" tooltip="Law (Borderlands 2)" display="https://borderlands.fandom.com/wiki/Law_(Borderlands_2)" xr:uid="{3D879007-A559-42AB-A8B0-D90558BF82E6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>